--- a/pred_ohlcv/54_21/2019-11-21 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 WET ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>498114.1386999999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>366854.6807999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1821297.3884</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1988402.9578</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2660914.6432</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2712571.4834</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2952797.7361</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>937528.1646999998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1008266.9651</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>823070.7555999998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>774109.1566999998</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>774109.1566999998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>760723.5874999998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>759181.0378999998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>395761.9371999998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2864960.8209</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2637212.5978</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2637212.5978</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2452937.759</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2527742.2844</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2527742.2844</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2527215.1995</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2548331.443</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3779863.005987434</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3743401.302987434</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3533960.882805251</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3504639.863905251</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3862329.099305251</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5920590.140972825</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5823671.907472825</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>5352035.104572825</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5532680.212672825</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>5464107.522172825</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>6541867.320772827</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>7796284.290972827</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>8301721.604172827</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>7650662.794922819</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>7600488.794922819</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>7638043.704522819</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>7691750.686322819</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>7509794.618922819</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>7415945.112522819</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>7415945.112522819</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>7280067.239722819</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>7265570.283522819</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>6609025.660522819</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>6892715.547622819</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>6803018.541022819</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>6928067.998822819</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>6924723.25312282</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>6941041.15712282</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>6797153.184122819</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>6809843.506722819</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>6865806.697322819</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6757995.68512282</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>6864651.92312282</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>6865647.92312282</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>6865551.92312282</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>6865455.92312282</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>7280081.91752282</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>7030829.298222819</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>7015775.451122819</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-21 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 WET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>498114.1386999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>498114.1386999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>366854.6807999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1821297.3884</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1988402.9578</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2660914.6432</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2712571.4834</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2952797.7361</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>937528.1646999998</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1008266.9651</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>823070.7555999998</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>774109.1566999998</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>774109.1566999998</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>760723.5874999998</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>759181.0378999998</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>395761.9371999998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>522734.0566999997</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>523734.0566999997</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2864960.8209</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2637212.5978</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2637212.5978</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2452937.759</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2527742.2844</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2527742.2844</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2527215.1995</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2548331.443</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3779863.005987434</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3743401.302987434</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3533960.882805251</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3504639.863905251</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3862329.099305251</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5920590.140972825</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5823671.907472825</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>5352035.104572825</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5532680.212672825</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>5464107.522172825</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5303855.823072826</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>5674565.230172827</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>6541867.320772827</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>7796284.290972827</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>8301721.604172827</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>7650662.794922819</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>7600488.794922819</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>7638043.704522819</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>7691750.686322819</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>7509794.618922819</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>7415945.112522819</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>7415945.112522819</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>7280067.239722819</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>7265570.283522819</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>6609025.660522819</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>6892715.547622819</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>6892715.547622819</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>6895261.334922819</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>7000979.667922819</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>6928067.998822819</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>6924723.25312282</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>6941041.15712282</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>6797153.184122819</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>6809843.506722819</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>6865806.697322819</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6757995.68512282</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>6864651.92312282</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>6865647.92312282</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>6865551.92312282</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>6865455.92312282</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>7030829.298222819</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>7015775.451122819</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>6614310.781362819</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>6793505.232552267</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>6883526.859586323</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>6911356.809751598</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>6911534.284851599</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>6894541.099851599</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
